--- a/Lib_Repo_Excel/FileExcel_Digisales/SCD0220 - Admin SLN melakukan Modul Setting Bobot.xlsx
+++ b/Lib_Repo_Excel/FileExcel_Digisales/SCD0220 - Admin SLN melakukan Modul Setting Bobot.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1442\Desktop\DigiSales\Lib_Repo_Excel\FileExcel_Digisales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81D026C0-491A-48F5-915C-E0B7C5AE1BCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E1C6BCF-37A0-409F-A98F-2E81AC865A7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>SIDEBAR_MENU</t>
   </si>
@@ -111,9 +111,6 @@
   </si>
   <si>
     <t>AMGR CPF TBS</t>
-  </si>
-  <si>
-    <t>2022-07-01</t>
   </si>
   <si>
     <t>25,25,50</t>
@@ -175,7 +172,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
@@ -201,6 +198,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -511,7 +511,7 @@
   <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -625,11 +625,12 @@
       <c r="L2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="12" t="str">
+        <f ca="1">TEXT(TODAY()+1, "yyyy-mm-dd")</f>
+        <v>2022-08-13</v>
+      </c>
+      <c r="N2" s="9" t="s">
         <v>25</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>26</v>
       </c>
       <c r="O2" s="9"/>
       <c r="P2" s="11"/>
